--- a/tests/test_resources/test.xlsx
+++ b/tests/test_resources/test.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkershaw/dev/csvpath/tests/test_resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B979E23-CF3B-ED4D-8E16-C8EFE2E20368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35723F6E-CE00-EF40-B6E8-F097728E3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{BA809FA5-E4A2-7C46-BB8C-D7FF352AEAFA}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BA809FA5-E4A2-7C46-BB8C-D7FF352AEAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="again" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="286">
   <si>
     <t>firstname</t>
   </si>
@@ -89,13 +90,822 @@
   </si>
   <si>
     <t>hmmh</t>
+  </si>
+  <si>
+    <t>BERDO ID</t>
+  </si>
+  <si>
+    <t>Tax Parcel ID</t>
+  </si>
+  <si>
+    <t>Property Owner Name</t>
+  </si>
+  <si>
+    <t>Building Address</t>
+  </si>
+  <si>
+    <t>Building Address City</t>
+  </si>
+  <si>
+    <t>Building Address Zip Code</t>
+  </si>
+  <si>
+    <t>Parcel Address</t>
+  </si>
+  <si>
+    <t>Parcel Address City</t>
+  </si>
+  <si>
+    <t>Parcel Address Zip Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reported Gross Floor Area (Sq Ft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reported Enclosed Parking Area (Sq Ft) </t>
+  </si>
+  <si>
+    <t>Largest Property Type</t>
+  </si>
+  <si>
+    <t>All Property Types</t>
+  </si>
+  <si>
+    <t>Site EUI (Energy Use Intensity kBtu/ft²)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Energy Star Score</t>
+  </si>
+  <si>
+    <t>Total Site Energy Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Natural Gas Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Electricity Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Renewable System Electricity Usage Onsite (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+District Hot Water Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+District Chilled Water Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+District Steam Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Fuel Oil 1 Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Fuel Oil 2 Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Fuel Oil 4 Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Fuel Oil 5 and 6 Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Propane Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Diesel Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kerosene Usage (kBtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Water Usage Intensity (Gallons/ft²)</t>
+  </si>
+  <si>
+    <t>Compliance Status</t>
+  </si>
+  <si>
+    <t>BERDO Report Status</t>
+  </si>
+  <si>
+    <t>Estimated Total GHG Emissions (kgCO2e)</t>
+  </si>
+  <si>
+    <t>Community Choice Electricity Participation</t>
+  </si>
+  <si>
+    <t>Renewable Energy Purchased through a Power Purchase Agreement (PPA)</t>
+  </si>
+  <si>
+    <t>Renewable Energy Certificate (REC) Purchase</t>
+  </si>
+  <si>
+    <t>Backup Generator</t>
+  </si>
+  <si>
+    <t>Battery Storage</t>
+  </si>
+  <si>
+    <t>Electric Vehicle (EV) Charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooresponding Campus ID </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>0303060001</t>
+  </si>
+  <si>
+    <t>1 LOVEJOY WHARF BOSTON  REALTY LLC</t>
+  </si>
+  <si>
+    <t>160  170 n washington st</t>
+  </si>
+  <si>
+    <t>boston</t>
+  </si>
+  <si>
+    <t>02114</t>
+  </si>
+  <si>
+    <t>160 170 n washington st</t>
+  </si>
+  <si>
+    <t>236688.0</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Retail Store </t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>16177367.5</t>
+  </si>
+  <si>
+    <t>4101525.0</t>
+  </si>
+  <si>
+    <t>12075842.5</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>In Compliance</t>
+  </si>
+  <si>
+    <t>7 - Accepted by BERDO Team</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>0304794000</t>
+  </si>
+  <si>
+    <t>10 TEMPLE PLACE LP</t>
+  </si>
+  <si>
+    <t>2-24 temple pl</t>
+  </si>
+  <si>
+    <t>02111</t>
+  </si>
+  <si>
+    <t>24 2 temple pl</t>
+  </si>
+  <si>
+    <t>135344.0</t>
+  </si>
+  <si>
+    <t>Multifamily Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Services Health/Beauty, Dry Cleaning, etc , Restaurant , Multifamily Housing , Medical Office , Supermarket/Grocery Store </t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>8251242.7</t>
+  </si>
+  <si>
+    <t>5517394.8</t>
+  </si>
+  <si>
+    <t>2733847.9</t>
+  </si>
+  <si>
+    <t>52.25</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>0602757045</t>
+  </si>
+  <si>
+    <t>10-20 CHANNEL CENTER</t>
+  </si>
+  <si>
+    <t>20 channel center st</t>
+  </si>
+  <si>
+    <t>02127</t>
+  </si>
+  <si>
+    <t>20 30 channel center st</t>
+  </si>
+  <si>
+    <t>255383.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office </t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>9182640.8</t>
+  </si>
+  <si>
+    <t>9182640.5</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>0304718000</t>
+  </si>
+  <si>
+    <t>10-24 SCHOOL STREET</t>
+  </si>
+  <si>
+    <t>24 school st</t>
+  </si>
+  <si>
+    <t>02108</t>
+  </si>
+  <si>
+    <t>12 province st</t>
+  </si>
+  <si>
+    <t>134789.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Data Center , Retail Store </t>
+  </si>
+  <si>
+    <t>55.5</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>7480044.0</t>
+  </si>
+  <si>
+    <t>613.8</t>
+  </si>
+  <si>
+    <t>3783686.2</t>
+  </si>
+  <si>
+    <t>3695743.9</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>0304408000</t>
+  </si>
+  <si>
+    <t>100 HIGH OWNER LLC</t>
+  </si>
+  <si>
+    <t>100 high st</t>
+  </si>
+  <si>
+    <t>02110</t>
+  </si>
+  <si>
+    <t>550326.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Data Center , Other - Restaurant/Bar N/A, Parking </t>
+  </si>
+  <si>
+    <t>52.6</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>28955904.0</t>
+  </si>
+  <si>
+    <t>28955903.9</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>0602671039</t>
+  </si>
+  <si>
+    <t>100 NORTHERN AVENUE LLC</t>
+  </si>
+  <si>
+    <t>90  110 northern av</t>
+  </si>
+  <si>
+    <t>02210</t>
+  </si>
+  <si>
+    <t>90 110 northern av</t>
+  </si>
+  <si>
+    <t>572998.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant , Office , Data Center , Parking </t>
+  </si>
+  <si>
+    <t>83.7</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>47964541.9</t>
+  </si>
+  <si>
+    <t>16261839.9</t>
+  </si>
+  <si>
+    <t>31702700.4</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>0304220000</t>
+  </si>
+  <si>
+    <t>100 SUMMER OWNER LLC</t>
+  </si>
+  <si>
+    <t>100 summer st</t>
+  </si>
+  <si>
+    <t>1113465.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Parking , Fast Food Restaurant </t>
+  </si>
+  <si>
+    <t>84.4</t>
+  </si>
+  <si>
+    <t>94006017.9</t>
+  </si>
+  <si>
+    <t>38052091.2</t>
+  </si>
+  <si>
+    <t>55953938.3</t>
+  </si>
+  <si>
+    <t>5.91</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>1001625010</t>
+  </si>
+  <si>
+    <t>101 HUNTINGTON OWNER (DE)  LLC</t>
+  </si>
+  <si>
+    <t>101 s huntington ave</t>
+  </si>
+  <si>
+    <t>02199</t>
+  </si>
+  <si>
+    <t>105 s huntington av</t>
+  </si>
+  <si>
+    <t>205000.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multifamily Housing , Heated Swimming Pool , Parking </t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>9682567.7</t>
+  </si>
+  <si>
+    <t>4877800.0</t>
+  </si>
+  <si>
+    <t>4804768.2</t>
+  </si>
+  <si>
+    <t>36.65</t>
+  </si>
+  <si>
+    <t>I'm not sure</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>0301675000</t>
+  </si>
+  <si>
+    <t>101 MERRIMAC OWNER LLC</t>
+  </si>
+  <si>
+    <t>101 merrimac st</t>
+  </si>
+  <si>
+    <t>162664.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Parking </t>
+  </si>
+  <si>
+    <t>47.6</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>7749001.7</t>
+  </si>
+  <si>
+    <t>414423.1</t>
+  </si>
+  <si>
+    <t>7334578.5</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>0602643020</t>
+  </si>
+  <si>
+    <t>101 SEAPORT BOULEVARD</t>
+  </si>
+  <si>
+    <t>101 seaport bl</t>
+  </si>
+  <si>
+    <t>620642.0</t>
+  </si>
+  <si>
+    <t>55.8</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>34653551.2</t>
+  </si>
+  <si>
+    <t>11674103.0</t>
+  </si>
+  <si>
+    <t>22979448.1</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>0304578000</t>
+  </si>
+  <si>
+    <t>101 SUMMER STREET INC</t>
+  </si>
+  <si>
+    <t>105-111 summer st</t>
+  </si>
+  <si>
+    <t>101 111 summer st</t>
+  </si>
+  <si>
+    <t>52651.0</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3881054.2</t>
+  </si>
+  <si>
+    <t>1589705.2</t>
+  </si>
+  <si>
+    <t>2291349.1</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t>0303842000</t>
+  </si>
+  <si>
+    <t>112 LLC</t>
+  </si>
+  <si>
+    <t>98-114 water st</t>
+  </si>
+  <si>
+    <t>02109</t>
+  </si>
+  <si>
+    <t>102 114 water st</t>
+  </si>
+  <si>
+    <t>25320.0</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>769363.0</t>
+  </si>
+  <si>
+    <t>271600.0</t>
+  </si>
+  <si>
+    <t>497763.0</t>
+  </si>
+  <si>
+    <t>2230.62</t>
+  </si>
+  <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>0306400000</t>
+  </si>
+  <si>
+    <t>1134 WASHINGTON STREET</t>
+  </si>
+  <si>
+    <t>1134-1140 washington st</t>
+  </si>
+  <si>
+    <t>02118</t>
+  </si>
+  <si>
+    <t>1134 1140 washington st</t>
+  </si>
+  <si>
+    <t>33538.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multifamily Housing , Bank Branch , Other </t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>1254138.2</t>
+  </si>
+  <si>
+    <t>833500.0</t>
+  </si>
+  <si>
+    <t>420638.2</t>
+  </si>
+  <si>
+    <t>I`m not sure</t>
+  </si>
+  <si>
+    <t>100027</t>
+  </si>
+  <si>
+    <t>2200550000</t>
+  </si>
+  <si>
+    <t>1200 SFR LLC</t>
+  </si>
+  <si>
+    <t>1200 soldiers field rd</t>
+  </si>
+  <si>
+    <t>02134</t>
+  </si>
+  <si>
+    <t>27543.0</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>970245.1</t>
+  </si>
+  <si>
+    <t>271189.1</t>
+  </si>
+  <si>
+    <t>699056.0</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>100028</t>
+  </si>
+  <si>
+    <t>0602643040</t>
+  </si>
+  <si>
+    <t>121 SEAPORT BOULEVARD CONDOMINIIUM TRUST</t>
+  </si>
+  <si>
+    <t>113  129 seaport bl</t>
+  </si>
+  <si>
+    <t>113 129 seaport bl</t>
+  </si>
+  <si>
+    <t>486562.0</t>
+  </si>
+  <si>
+    <t>56.3</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>27398360.7</t>
+  </si>
+  <si>
+    <t>9172813.9</t>
+  </si>
+  <si>
+    <t>18225546.0</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>100031</t>
+  </si>
+  <si>
+    <t>1101208030</t>
+  </si>
+  <si>
+    <t>125 AMORY LEASEHOLD CONDOMINIUM ASSOCIATION</t>
+  </si>
+  <si>
+    <t>125 amory st</t>
+  </si>
+  <si>
+    <t>02119</t>
+  </si>
+  <si>
+    <t>113806.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multifamily Housing </t>
+  </si>
+  <si>
+    <t>97.4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11082552.8</t>
+  </si>
+  <si>
+    <t>3177877.1</t>
+  </si>
+  <si>
+    <t>7904675.9</t>
+  </si>
+  <si>
+    <t>63.07</t>
+  </si>
+  <si>
+    <t>100035</t>
+  </si>
+  <si>
+    <t>0304334000</t>
+  </si>
+  <si>
+    <t>125 LINCOLN STREET OWNER LLC</t>
+  </si>
+  <si>
+    <t>109-153 lincoln st</t>
+  </si>
+  <si>
+    <t>109 153 lincoln st</t>
+  </si>
+  <si>
+    <t>110832.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office , Parking , Retail Store </t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>4093256.9</t>
+  </si>
+  <si>
+    <t>3850500.0</t>
+  </si>
+  <si>
+    <t>242757.0</t>
+  </si>
+  <si>
+    <t>7.64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +1039,34 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -572,8 +1410,50 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C30A2-9D61-BA4A-BA05-A7256401ADF6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1070,4 +1950,1795 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA7375-12EA-5040-BB81-B36161B9C8C4}">
+  <dimension ref="A1:AO18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="70.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>1173031.135</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>509276.20669999998</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="7"/>
+    </row>
+    <row r="4" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>726346.86360000004</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>544719.5723</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="7"/>
+    </row>
+    <row r="6" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="11">
+        <v>94644</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>2290411.9980000001</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="7"/>
+    </row>
+    <row r="7" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="11">
+        <v>166100</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>3371349.9190000002</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="7"/>
+    </row>
+    <row r="8" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="11">
+        <v>21580</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>6725261.9170000004</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="7"/>
+    </row>
+    <row r="9" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="11">
+        <v>68250</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>639117.1226</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="11">
+        <v>14627</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>602175.17020000005</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="11">
+        <v>144404</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>2437685.9550000001</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>265674.95699999999</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>53797.729299999999</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>77539.666620000004</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="7"/>
+    </row>
+    <row r="15" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>69698.182700000005</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="11">
+        <v>130276</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>1928808.835</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="7"/>
+    </row>
+    <row r="17" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>794036.91650000005</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="7"/>
+    </row>
+    <row r="18" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>223702.13370000001</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>